--- a/static/download/2024/RP3_FLT_EFF_2024_Jan_Dec.xlsx
+++ b/static/download/2024/RP3_FLT_EFF_2024_Jan_Dec.xlsx
@@ -1333,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>45673.0</v>
+        <v>45758.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B2" s="36">
         <f>FLT_EFF_YY!B2</f>
-        <v>45673</v>
+        <v>45758</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B2" s="36">
         <f>FLT_EFF_YY!B2</f>
-        <v>45673</v>
+        <v>45758</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -3028,7 +3028,7 @@
         <v>0.0419</v>
       </c>
       <c r="D6" s="80">
-        <v>0.0237</v>
+        <v>0.024</v>
       </c>
       <c r="E6" s="81">
         <v>0.0296</v>
@@ -3040,14 +3040,14 @@
         <v>112</v>
       </c>
       <c r="B7" s="81">
-        <v>0.0712</v>
+        <v>0.061</v>
       </c>
       <c r="C7" s="81">
-        <v>0.0675</v>
+        <v>0.0577</v>
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="81">
-        <v>0.0525</v>
+        <v>0.0348</v>
       </c>
       <c r="F7" s="82"/>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B2" s="36">
         <f>FLT_EFF_YY!B2</f>
-        <v>45673</v>
+        <v>45758</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -3314,7 +3314,9 @@
       <c r="C6" s="87">
         <v>0.027</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="88">
+        <v>0.0196</v>
+      </c>
       <c r="E6" s="88">
         <v>0.0211</v>
       </c>
@@ -3330,7 +3332,9 @@
       <c r="C7" s="88">
         <v>0.0577</v>
       </c>
-      <c r="D7" s="87"/>
+      <c r="D7" s="87">
+        <v>0.03</v>
+      </c>
       <c r="E7" s="88">
         <v>0.0348</v>
       </c>
@@ -3346,7 +3350,9 @@
       <c r="C8" s="88">
         <v>0.0392</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="87">
+        <v>0.0225</v>
+      </c>
       <c r="E8" s="88">
         <v>0.0352</v>
       </c>
@@ -3362,7 +3368,9 @@
       <c r="C9" s="88">
         <v>0.017</v>
       </c>
-      <c r="D9" s="87"/>
+      <c r="D9" s="87">
+        <v>0.0146</v>
+      </c>
       <c r="E9" s="88">
         <v>0.0156</v>
       </c>
@@ -3378,7 +3386,9 @@
       <c r="C10" s="88">
         <v>0.062</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="87">
+        <v>0.0384</v>
+      </c>
       <c r="E10" s="88">
         <v>0.0543</v>
       </c>
@@ -3394,7 +3404,9 @@
       <c r="C11" s="88">
         <v>0.0347</v>
       </c>
-      <c r="D11" s="87"/>
+      <c r="D11" s="87">
+        <v>0.0205</v>
+      </c>
       <c r="E11" s="88">
         <v>0.0248</v>
       </c>
@@ -3410,7 +3422,9 @@
       <c r="C12" s="88">
         <v>0.0213</v>
       </c>
-      <c r="D12" s="87"/>
+      <c r="D12" s="87">
+        <v>0.0114</v>
+      </c>
       <c r="E12" s="88">
         <v>0.0124</v>
       </c>
@@ -3426,7 +3440,9 @@
       <c r="C13" s="87">
         <v>0.0614</v>
       </c>
-      <c r="D13" s="87"/>
+      <c r="D13" s="87">
+        <v>0.0122</v>
+      </c>
       <c r="E13" s="88">
         <v>0.0614</v>
       </c>
@@ -3442,7 +3458,9 @@
       <c r="C14" s="87">
         <v>0.0368</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="87">
+        <v>0.0088</v>
+      </c>
       <c r="E14" s="87">
         <v>0.0341</v>
       </c>
@@ -3458,7 +3476,9 @@
       <c r="C15" s="88">
         <v>0.0536</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="87">
+        <v>0.0283</v>
+      </c>
       <c r="E15" s="88">
         <v>0.0329</v>
       </c>
@@ -3474,7 +3494,9 @@
       <c r="C16" s="88">
         <v>0.0462</v>
       </c>
-      <c r="D16" s="87"/>
+      <c r="D16" s="87">
+        <v>0.023</v>
+      </c>
       <c r="E16" s="88">
         <v>0.0253</v>
       </c>
@@ -3490,7 +3512,9 @@
       <c r="C17" s="88">
         <v>0.029</v>
       </c>
-      <c r="D17" s="87"/>
+      <c r="D17" s="87">
+        <v>0.0192</v>
+      </c>
       <c r="E17" s="88">
         <v>0.0219</v>
       </c>
@@ -3506,7 +3530,9 @@
       <c r="C18" s="88">
         <v>0.0279</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="87">
+        <v>0.0149</v>
+      </c>
       <c r="E18" s="88">
         <v>0.0223</v>
       </c>
@@ -3522,7 +3548,9 @@
       <c r="C19" s="88">
         <v>0.0187</v>
       </c>
-      <c r="D19" s="87"/>
+      <c r="D19" s="87">
+        <v>0.0113</v>
+      </c>
       <c r="E19" s="88">
         <v>0.014</v>
       </c>
@@ -3538,7 +3566,9 @@
       <c r="C20" s="88">
         <v>0.0398</v>
       </c>
-      <c r="D20" s="87"/>
+      <c r="D20" s="87">
+        <v>0.0267</v>
+      </c>
       <c r="E20" s="88">
         <v>0.0303</v>
       </c>
@@ -3554,7 +3584,9 @@
       <c r="C21" s="88">
         <v>0.0717</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="87">
+        <v>0.0125</v>
+      </c>
       <c r="E21" s="88">
         <v>0.0736</v>
       </c>
@@ -3570,7 +3602,9 @@
       <c r="C22" s="88">
         <v>0.1325</v>
       </c>
-      <c r="D22" s="87"/>
+      <c r="D22" s="87">
+        <v>0.0192</v>
+      </c>
       <c r="E22" s="88">
         <v>0.1219</v>
       </c>
@@ -3586,7 +3620,9 @@
       <c r="C23" s="88">
         <v>0.0125</v>
       </c>
-      <c r="D23" s="87"/>
+      <c r="D23" s="87">
+        <v>0.018</v>
+      </c>
       <c r="E23" s="88">
         <v>0.0149</v>
       </c>
@@ -3602,7 +3638,9 @@
       <c r="C24" s="88">
         <v>0.0445</v>
       </c>
-      <c r="D24" s="87"/>
+      <c r="D24" s="87">
+        <v>0.0262</v>
+      </c>
       <c r="E24" s="88">
         <v>0.0284</v>
       </c>
@@ -3618,7 +3656,9 @@
       <c r="C25" s="88">
         <v>0.0219</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="87">
+        <v>0.0155</v>
+      </c>
       <c r="E25" s="88">
         <v>0.0133</v>
       </c>
@@ -3634,7 +3674,9 @@
       <c r="C26" s="88">
         <v>0.0601</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="87">
+        <v>0.0165</v>
+      </c>
       <c r="E26" s="88">
         <v>0.0449</v>
       </c>
@@ -3650,7 +3692,9 @@
       <c r="C27" s="88">
         <v>0.0184</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="87">
+        <v>0.018</v>
+      </c>
       <c r="E27" s="88">
         <v>0.0161</v>
       </c>
@@ -3666,7 +3710,9 @@
       <c r="C28" s="88">
         <v>0.04</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="87">
+        <v>0.0205</v>
+      </c>
       <c r="E28" s="88">
         <v>0.0377</v>
       </c>
@@ -3682,7 +3728,9 @@
       <c r="C29" s="88">
         <v>0.0463</v>
       </c>
-      <c r="D29" s="87"/>
+      <c r="D29" s="87">
+        <v>0.0213</v>
+      </c>
       <c r="E29" s="88">
         <v>0.0405</v>
       </c>
@@ -3698,7 +3746,9 @@
       <c r="C30" s="88">
         <v>0.0189</v>
       </c>
-      <c r="D30" s="87"/>
+      <c r="D30" s="87">
+        <v>0.0155</v>
+      </c>
       <c r="E30" s="88">
         <v>0.0177</v>
       </c>
@@ -3714,7 +3764,9 @@
       <c r="C31" s="88">
         <v>0.0444</v>
       </c>
-      <c r="D31" s="87"/>
+      <c r="D31" s="87">
+        <v>0.0308</v>
+      </c>
       <c r="E31" s="88">
         <v>0.033</v>
       </c>
@@ -3730,7 +3782,9 @@
       <c r="C32" s="88">
         <v>0.0258</v>
       </c>
-      <c r="D32" s="87"/>
+      <c r="D32" s="87">
+        <v>0.0105</v>
+      </c>
       <c r="E32" s="88">
         <v>0.0172</v>
       </c>
@@ -3746,7 +3800,9 @@
       <c r="C33" s="88">
         <v>0.0604</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="87">
+        <v>0.0395</v>
+      </c>
       <c r="E33" s="88">
         <v>0.041</v>
       </c>
